--- a/public/sample/sample-supplier.xlsx
+++ b/public/sample/sample-supplier.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Agungdev\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\pos-apotek\public\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62AD4A0F-4D2F-40CE-B04E-B7FF45DCC1B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC16E1C-9BBA-4A08-8CA0-BE72891485EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2940" yWindow="1500" windowWidth="15375" windowHeight="7875" xr2:uid="{1EA7762B-88F1-4DDF-AC28-D778332B88F7}"/>
   </bookViews>
@@ -63,24 +63,12 @@
     <t>dana@mail.com</t>
   </si>
   <si>
-    <t>bca</t>
-  </si>
-  <si>
     <t>sleman</t>
   </si>
   <si>
     <t>maguwoharjo</t>
   </si>
   <si>
-    <t>bni</t>
-  </si>
-  <si>
-    <t>bri</t>
-  </si>
-  <si>
-    <t>mandiri</t>
-  </si>
-  <si>
     <t>pomahan</t>
   </si>
   <si>
@@ -130,6 +118,18 @@
   </si>
   <si>
     <t>agung@mail.com</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>BNI</t>
+  </si>
+  <si>
+    <t>BRI</t>
+  </si>
+  <si>
+    <t>Mandiri</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,16 +554,16 @@
         <v>85678245612</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G2">
         <v>67895631</v>
       </c>
       <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -571,28 +571,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C3">
         <v>5671291</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>891256798</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>78027372</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -600,28 +600,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>961782</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>8123897567</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>89612381</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -629,28 +629,28 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>8912347</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>8534561290</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>90871671</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -658,28 +658,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C6">
         <v>985612</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>8967325612</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="G6">
         <v>17913671</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -687,28 +687,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7">
         <v>1267089</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>8678012530</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>89103717</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -716,28 +716,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8">
         <v>2398561</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>8521309856</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>91623821</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
